--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADC791-B238-A640-AF85-F28553B95DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFC166-A96E-C346-9F3C-784BD825450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -661,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -838,19 +844,18 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -860,16 +865,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -881,16 +886,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -905,22 +907,19 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>25000</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>59</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -932,13 +931,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
+      <c r="G14">
+        <v>25000</v>
+      </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -950,16 +958,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
+      <c r="H15" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -971,49 +976,41 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
-      </c>
-      <c r="G17">
-        <v>17114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1027,10 +1024,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>19184</v>
+        <v>17114</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1042,7 +1039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1056,10 +1053,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>18506</v>
+        <v>19184</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1071,7 +1068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1085,10 +1082,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>20802</v>
+        <v>18506</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1100,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1114,10 +1111,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>22966</v>
+        <v>20802</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1129,7 +1126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1143,10 +1140,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>19449</v>
+        <v>22966</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
@@ -1158,7 +1155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1172,10 +1169,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>16029</v>
+        <v>19449</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
@@ -1187,7 +1184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1201,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>20099</v>
+        <v>16029</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1216,7 +1213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1230,10 +1227,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>19329</v>
+        <v>20099</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -1245,7 +1242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1259,10 +1256,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>23976</v>
+        <v>19329</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
@@ -1274,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1288,10 +1285,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>20285</v>
+        <v>23976</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
@@ -1303,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1317,10 +1314,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>24510</v>
+        <v>20285</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
@@ -1332,7 +1329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1346,10 +1343,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>18888</v>
+        <v>24510</v>
       </c>
       <c r="H29" t="s">
         <v>46</v>
@@ -1361,7 +1358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1375,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>21047</v>
+        <v>18888</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
@@ -1390,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1404,10 +1401,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>19078</v>
+        <v>21047</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1419,7 +1416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1433,10 +1430,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>17761</v>
+        <v>19078</v>
       </c>
       <c r="H32" t="s">
         <v>46</v>
@@ -1448,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1462,10 +1459,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>16738</v>
+        <v>17761</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
@@ -1477,7 +1474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1491,10 +1488,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>19826</v>
+        <v>16738</v>
       </c>
       <c r="H34" t="s">
         <v>46</v>
@@ -1506,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1520,10 +1517,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>20873</v>
+        <v>19826</v>
       </c>
       <c r="H35" t="s">
         <v>46</v>
@@ -1535,7 +1532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1549,10 +1546,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>21026</v>
+        <v>20873</v>
       </c>
       <c r="H36" t="s">
         <v>46</v>
@@ -1564,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1578,10 +1575,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>21420</v>
+        <v>21026</v>
       </c>
       <c r="H37" t="s">
         <v>46</v>
@@ -1593,7 +1590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1607,10 +1604,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>19062</v>
+        <v>21420</v>
       </c>
       <c r="H38" t="s">
         <v>46</v>
@@ -1622,7 +1619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1636,10 +1633,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>22074</v>
+        <v>19062</v>
       </c>
       <c r="H39" t="s">
         <v>46</v>
@@ -1651,7 +1648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1665,10 +1662,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>21813</v>
+        <v>22074</v>
       </c>
       <c r="H40" t="s">
         <v>46</v>
@@ -1680,7 +1677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1694,10 +1691,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>22065</v>
+        <v>21813</v>
       </c>
       <c r="H41" t="s">
         <v>46</v>
@@ -1709,7 +1706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1723,10 +1720,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>22891</v>
+        <v>22065</v>
       </c>
       <c r="H42" t="s">
         <v>46</v>
@@ -1738,7 +1735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1752,10 +1749,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>19752</v>
+        <v>22891</v>
       </c>
       <c r="H43" t="s">
         <v>46</v>
@@ -1767,7 +1764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1781,10 +1778,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>20720</v>
+        <v>19752</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -1796,7 +1793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1810,10 +1807,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>20520</v>
+        <v>20720</v>
       </c>
       <c r="H45" t="s">
         <v>46</v>
@@ -1825,7 +1822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1839,10 +1836,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>22856</v>
+        <v>20520</v>
       </c>
       <c r="H46" t="s">
         <v>46</v>
@@ -1854,7 +1851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1862,25 +1859,28 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>6460</v>
+        <v>22856</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>6460</v>
@@ -1905,12 +1905,6 @@
       <c r="I48" t="s">
         <v>47</v>
       </c>
-      <c r="J48" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1926,7 +1920,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>6460</v>
@@ -1937,6 +1931,12 @@
       <c r="I49" t="s">
         <v>47</v>
       </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1952,7 +1952,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>6460</v>
@@ -1978,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>6460</v>
@@ -2004,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
         <v>6460</v>
@@ -2030,22 +2030,16 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>7636</v>
+        <v>6460</v>
       </c>
       <c r="H53" t="s">
         <v>49</v>
       </c>
       <c r="I53" t="s">
         <v>47</v>
-      </c>
-      <c r="J53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2062,7 +2056,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>7636</v>
@@ -2073,6 +2067,12 @@
       <c r="I54" t="s">
         <v>47</v>
       </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2088,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
         <v>7636</v>
@@ -2114,7 +2114,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>7636</v>
@@ -2140,7 +2140,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
         <v>7636</v>
@@ -2166,22 +2166,16 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>7704</v>
+        <v>7636</v>
       </c>
       <c r="H58" t="s">
         <v>49</v>
       </c>
       <c r="I58" t="s">
         <v>47</v>
-      </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2198,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>7704</v>
@@ -2209,6 +2203,12 @@
       <c r="I59" t="s">
         <v>47</v>
       </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2224,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
         <v>7704</v>
@@ -2250,7 +2250,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
         <v>7704</v>
@@ -2276,7 +2276,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
         <v>7704</v>
@@ -2302,19 +2302,16 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>7974</v>
+        <v>7704</v>
       </c>
       <c r="H63" t="s">
         <v>49</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
-      </c>
-      <c r="J63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2331,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>7974</v>
@@ -2342,6 +2339,9 @@
       <c r="I64" t="s">
         <v>47</v>
       </c>
+      <c r="J64" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -2357,19 +2357,16 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>8065</v>
+        <v>7974</v>
       </c>
       <c r="H65" t="s">
         <v>49</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2386,7 +2383,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
         <v>8065</v>
@@ -2397,6 +2394,9 @@
       <c r="I66" t="s">
         <v>47</v>
       </c>
+      <c r="J66" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2412,19 +2412,16 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>8073.4</v>
+        <v>8065</v>
       </c>
       <c r="H67" t="s">
         <v>49</v>
       </c>
       <c r="I67" t="s">
         <v>47</v>
-      </c>
-      <c r="J67" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2441,10 +2438,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>8078.4</v>
+        <v>8073.4</v>
       </c>
       <c r="H68" t="s">
         <v>49</v>
@@ -2470,10 +2467,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>8081.4</v>
+        <v>8078.4</v>
       </c>
       <c r="H69" t="s">
         <v>49</v>
@@ -2499,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
         <v>8081.4</v>
@@ -2528,10 +2525,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>7956.4</v>
+        <v>8081.4</v>
       </c>
       <c r="H71" t="s">
         <v>49</v>
@@ -2557,10 +2554,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>7966.4</v>
+        <v>7956.4</v>
       </c>
       <c r="H72" t="s">
         <v>49</v>
@@ -2586,10 +2583,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>8156.15</v>
+        <v>7966.4</v>
       </c>
       <c r="H73" t="s">
         <v>49</v>
@@ -2615,10 +2612,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>8151.75</v>
+        <v>8156.15</v>
       </c>
       <c r="H74" t="s">
         <v>49</v>
@@ -2644,10 +2641,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>8223.25</v>
+        <v>8151.75</v>
       </c>
       <c r="H75" t="s">
         <v>49</v>
@@ -2673,10 +2670,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
-        <v>8223.93</v>
+        <v>8223.25</v>
       </c>
       <c r="H76" t="s">
         <v>49</v>
@@ -2696,16 +2693,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>8223.93</v>
       </c>
       <c r="H77" t="s">
         <v>49</v>
@@ -2713,8 +2710,8 @@
       <c r="I77" t="s">
         <v>47</v>
       </c>
-      <c r="L77" t="s">
-        <v>53</v>
+      <c r="J77" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2731,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2789,7 +2786,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2818,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2847,7 +2844,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2876,10 +2873,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>49</v>
@@ -2905,10 +2902,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="H84" t="s">
         <v>49</v>
@@ -2934,7 +2931,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2963,7 +2960,7 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2992,7 +2989,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3021,10 +3018,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>49</v>
@@ -3050,10 +3047,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
         <v>49</v>
@@ -3079,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3108,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3137,7 +3134,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3166,10 +3163,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>49</v>
@@ -3195,10 +3192,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
         <v>49</v>
@@ -3224,10 +3221,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>49</v>
@@ -3253,10 +3250,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s">
         <v>49</v>
@@ -3282,10 +3279,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>49</v>
@@ -3311,10 +3308,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
@@ -3340,10 +3337,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
         <v>49</v>
@@ -3369,10 +3366,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
@@ -3398,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3427,10 +3424,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>49</v>
@@ -3456,10 +3453,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>189.75</v>
+        <v>10</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
@@ -3485,10 +3482,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>189.75</v>
       </c>
       <c r="H104" t="s">
         <v>49</v>
@@ -3514,10 +3511,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
@@ -3543,10 +3540,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
-        <v>0.68</v>
+        <v>71.5</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
@@ -3566,16 +3563,16 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
@@ -3601,7 +3598,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3630,7 +3627,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3659,7 +3656,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3688,7 +3685,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3717,7 +3714,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3746,7 +3743,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3775,7 +3772,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3804,7 +3801,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3833,7 +3830,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3862,7 +3859,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3891,7 +3888,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3920,7 +3917,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3949,7 +3946,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3978,7 +3975,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4007,7 +4004,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4036,7 +4033,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4065,7 +4062,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4094,7 +4091,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4123,7 +4120,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4152,7 +4149,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4181,7 +4178,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4210,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4239,7 +4236,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4268,10 +4265,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>49</v>
@@ -4297,10 +4294,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H132" t="s">
         <v>49</v>
@@ -4326,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4355,10 +4352,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>49</v>
@@ -4384,10 +4381,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H135" t="s">
         <v>49</v>
@@ -4413,7 +4410,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4436,16 +4433,25 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
+      </c>
+      <c r="L137" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4462,7 +4468,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
@@ -4482,7 +4488,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
@@ -4502,7 +4508,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4522,7 +4528,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4542,7 +4548,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4562,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4582,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4602,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4622,7 +4628,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4642,7 +4648,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4662,7 +4668,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4682,7 +4688,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4702,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4722,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4742,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4762,7 +4768,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4782,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4802,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4822,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4842,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4862,7 +4868,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4882,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4902,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4922,22 +4928,10 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
-      </c>
-      <c r="G161">
-        <v>28.06575174</v>
-      </c>
-      <c r="H161" t="s">
-        <v>60</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
-      </c>
-      <c r="J161" t="s">
-        <v>61</v>
-      </c>
-      <c r="L161" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -4954,10 +4948,22 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G162">
+        <v>28.06575174</v>
+      </c>
+      <c r="H162" t="s">
+        <v>60</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
+      </c>
+      <c r="J162" t="s">
+        <v>61</v>
+      </c>
+      <c r="L162" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -4974,7 +4980,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -4994,7 +5000,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5014,7 +5020,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5034,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5048,13 +5054,13 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5074,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5094,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5114,7 +5120,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5134,7 +5140,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5154,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5174,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5194,7 +5200,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5214,7 +5220,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5234,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5254,7 +5260,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5274,7 +5280,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5294,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5314,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5334,7 +5340,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5354,7 +5360,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5374,7 +5380,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5394,7 +5400,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5414,7 +5420,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5434,7 +5440,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5454,7 +5460,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5474,7 +5480,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5494,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5514,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5534,22 +5540,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
-      </c>
-      <c r="G191">
-        <v>2445.6353479999998</v>
-      </c>
-      <c r="H191" t="s">
-        <v>60</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
-      </c>
-      <c r="J191" t="s">
-        <v>61</v>
-      </c>
-      <c r="L191" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -5566,10 +5560,22 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G192">
+        <v>2445.6353479999998</v>
+      </c>
+      <c r="H192" t="s">
+        <v>60</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
+      </c>
+      <c r="J192" t="s">
+        <v>61</v>
+      </c>
+      <c r="L192" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5586,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5606,7 +5612,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -5626,7 +5632,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -5646,7 +5652,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
@@ -5660,13 +5666,13 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5686,7 +5692,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -5706,7 +5712,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5726,7 +5732,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5746,7 +5752,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5766,7 +5772,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5786,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5806,7 +5812,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5826,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5846,7 +5852,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -5866,7 +5872,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -5886,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -5906,7 +5912,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -5926,7 +5932,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -5946,7 +5952,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -5966,7 +5972,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -5986,7 +5992,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6006,7 +6012,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6026,7 +6032,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6046,7 +6052,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6066,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6086,7 +6092,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6106,7 +6112,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6126,7 +6132,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6146,22 +6152,10 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
-      </c>
-      <c r="G221">
-        <v>3.4329493680000001</v>
-      </c>
-      <c r="H221" t="s">
-        <v>63</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
-      </c>
-      <c r="J221" t="s">
-        <v>61</v>
-      </c>
-      <c r="L221" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -6178,10 +6172,22 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G222">
+        <v>3.4329493680000001</v>
+      </c>
+      <c r="H222" t="s">
+        <v>63</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
+      </c>
+      <c r="J222" t="s">
+        <v>61</v>
+      </c>
+      <c r="L222" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6198,7 +6204,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6218,7 +6224,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6238,7 +6244,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6258,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6272,25 +6278,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>49</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
-      </c>
-      <c r="L227" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6307,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6336,7 +6333,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6365,7 +6362,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6394,7 +6391,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6423,7 +6420,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6452,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6481,7 +6478,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6510,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6539,7 +6536,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6568,7 +6565,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6597,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6626,7 +6623,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6655,7 +6652,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6684,7 +6681,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6713,7 +6710,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6742,7 +6739,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6771,7 +6768,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6800,7 +6797,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6829,7 +6826,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6858,7 +6855,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6887,7 +6884,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6916,7 +6913,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6945,7 +6942,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6974,10 +6971,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H251" t="s">
         <v>49</v>
@@ -7003,10 +7000,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H252" t="s">
         <v>49</v>
@@ -7032,7 +7029,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7061,10 +7058,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H254" t="s">
         <v>49</v>
@@ -7090,10 +7087,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H255" t="s">
         <v>49</v>
@@ -7119,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7142,25 +7139,25 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>49</v>
       </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
-      <c r="J257" t="s">
-        <v>65</v>
-      </c>
       <c r="L257" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7177,10 +7174,10 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.33900221899999999</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
@@ -7206,10 +7203,10 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
-        <v>0.32702121899999997</v>
+        <v>0.33900221899999999</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
@@ -7235,10 +7232,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
-        <v>0.36759404600000001</v>
+        <v>0.32702121899999997</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
@@ -7264,10 +7261,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
-        <v>0.40583428799999999</v>
+        <v>0.36759404600000001</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7293,10 +7290,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
-        <v>0.34368505900000001</v>
+        <v>0.40583428799999999</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7322,10 +7319,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
-        <v>0.29132268900000002</v>
+        <v>0.34368505900000001</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7351,10 +7348,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
-        <v>0.309843755</v>
+        <v>0.29132268900000002</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7380,10 +7377,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
-        <v>0.30893542499999999</v>
+        <v>0.309843755</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7409,10 +7406,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
-        <v>0.35843194099999998</v>
+        <v>0.30893542499999999</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7438,10 +7435,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
-        <v>0.31339508399999999</v>
+        <v>0.35843194099999998</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7467,10 +7464,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
-        <v>0.363180842</v>
+        <v>0.31339508399999999</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7496,10 +7493,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
-        <v>0.27987595799999998</v>
+        <v>0.363180842</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7525,10 +7522,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
-        <v>0.31186728600000002</v>
+        <v>0.27987595799999998</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7554,10 +7551,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
-        <v>0.29763119900000001</v>
+        <v>0.31186728600000002</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7583,10 +7580,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
-        <v>0.28598605100000002</v>
+        <v>0.29763119900000001</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7612,10 +7609,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
-        <v>0.27258165299999998</v>
+        <v>0.28598605100000002</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7641,10 +7638,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
-        <v>0.28382769099999999</v>
+        <v>0.27258165299999998</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7670,10 +7667,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
-        <v>0.29544482999999999</v>
+        <v>0.28382769099999999</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7699,10 +7696,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
-        <v>0.29761045400000002</v>
+        <v>0.29544482999999999</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7728,10 +7725,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
-        <v>0.30287183600000001</v>
+        <v>0.29761045400000002</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7757,10 +7754,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
-        <v>0.26936366099999998</v>
+        <v>0.30287183600000001</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7786,10 +7783,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
-        <v>0.31181020799999998</v>
+        <v>0.26936366099999998</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7815,10 +7812,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
-        <v>0.30812340599999999</v>
+        <v>0.31181020799999998</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7844,10 +7841,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
-        <v>0.31657981200000002</v>
+        <v>0.30812340599999999</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7873,10 +7870,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
-        <v>0.32801866000000002</v>
+        <v>0.31657981200000002</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7902,10 +7899,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
-        <v>0.30684676700000002</v>
+        <v>0.32801866000000002</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7931,7 +7928,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.30684676700000002</v>
@@ -7960,7 +7957,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.30684676700000002</v>
@@ -7989,10 +7986,10 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
-        <v>0.31726102</v>
+        <v>0.30684676700000002</v>
       </c>
       <c r="I286" t="s">
         <v>47</v>
@@ -8012,16 +8009,16 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.31726102</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -8030,7 +8027,7 @@
         <v>65</v>
       </c>
       <c r="L287" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8047,10 +8044,10 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.23962008900000001</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -8076,7 +8073,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.23962008900000001</v>
@@ -8105,7 +8102,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.23962008900000001</v>
@@ -8134,7 +8131,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.23962008900000001</v>
@@ -8163,7 +8160,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.23962008900000001</v>
@@ -8192,7 +8189,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.23962008900000001</v>
@@ -8221,7 +8218,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.23962008900000001</v>
@@ -8250,7 +8247,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.23962008900000001</v>
@@ -8279,7 +8276,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.23962008900000001</v>
@@ -8308,7 +8305,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.23962008900000001</v>
@@ -8337,7 +8334,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.23962008900000001</v>
@@ -8366,7 +8363,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.23962008900000001</v>
@@ -8395,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.23962008900000001</v>
@@ -8424,7 +8421,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.23962008900000001</v>
@@ -8453,7 +8450,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.23962008900000001</v>
@@ -8482,7 +8479,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.23962008900000001</v>
@@ -8511,7 +8508,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.23962008900000001</v>
@@ -8540,7 +8537,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.23962008900000001</v>
@@ -8569,7 +8566,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.23962008900000001</v>
@@ -8598,7 +8595,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.23962008900000001</v>
@@ -8627,7 +8624,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.23962008900000001</v>
@@ -8656,7 +8653,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.23962008900000001</v>
@@ -8685,7 +8682,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.23962008900000001</v>
@@ -8714,7 +8711,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.23962008900000001</v>
@@ -8743,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.23962008900000001</v>
@@ -8772,7 +8769,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.23962008900000001</v>
@@ -8801,7 +8798,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.23962008900000001</v>
@@ -8830,7 +8827,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.23962008900000001</v>
@@ -8859,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.23962008900000001</v>
@@ -8874,11 +8871,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.23962008900000001</v>
+      </c>
+      <c r="I317" t="s">
+        <v>47</v>
+      </c>
+      <c r="J317" t="s">
+        <v>65</v>
+      </c>
+      <c r="L317" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFC166-A96E-C346-9F3C-784BD825450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA99571-E3F5-9B4C-AAAE-8DFAC741F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -667,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,10 +783,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -795,16 +804,16 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -816,26 +825,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -845,17 +846,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -864,19 +866,27 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -885,19 +895,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -907,19 +916,16 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -931,22 +937,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>25000</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -958,13 +958,19 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -976,16 +982,22 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>25000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -997,16 +1009,13 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
+      <c r="H17" t="s">
+        <v>54</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1017,27 +1026,19 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>17114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1046,27 +1047,19 @@
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>19184</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1082,10 +1075,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>18506</v>
+        <v>17114</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1111,10 +1104,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>20802</v>
+        <v>19184</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1140,10 +1133,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>22966</v>
+        <v>18506</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
@@ -1169,10 +1162,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>19449</v>
+        <v>20802</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
@@ -1198,10 +1191,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>16029</v>
+        <v>22966</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1227,10 +1220,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>20099</v>
+        <v>19449</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -1256,10 +1249,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>19329</v>
+        <v>16029</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
@@ -1285,10 +1278,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>23976</v>
+        <v>20099</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
@@ -1314,10 +1307,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>20285</v>
+        <v>19329</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
@@ -1343,10 +1336,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>24510</v>
+        <v>23976</v>
       </c>
       <c r="H29" t="s">
         <v>46</v>
@@ -1372,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>18888</v>
+        <v>20285</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
@@ -1401,10 +1394,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>21047</v>
+        <v>24510</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1430,10 +1423,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>19078</v>
+        <v>18888</v>
       </c>
       <c r="H32" t="s">
         <v>46</v>
@@ -1459,10 +1452,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>17761</v>
+        <v>21047</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
@@ -1488,10 +1481,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>16738</v>
+        <v>19078</v>
       </c>
       <c r="H34" t="s">
         <v>46</v>
@@ -1517,10 +1510,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>19826</v>
+        <v>17761</v>
       </c>
       <c r="H35" t="s">
         <v>46</v>
@@ -1546,10 +1539,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>20873</v>
+        <v>16738</v>
       </c>
       <c r="H36" t="s">
         <v>46</v>
@@ -1575,10 +1568,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>21026</v>
+        <v>19826</v>
       </c>
       <c r="H37" t="s">
         <v>46</v>
@@ -1604,10 +1597,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>21420</v>
+        <v>20873</v>
       </c>
       <c r="H38" t="s">
         <v>46</v>
@@ -1633,10 +1626,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>19062</v>
+        <v>21026</v>
       </c>
       <c r="H39" t="s">
         <v>46</v>
@@ -1662,10 +1655,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>22074</v>
+        <v>21420</v>
       </c>
       <c r="H40" t="s">
         <v>46</v>
@@ -1691,10 +1684,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>21813</v>
+        <v>19062</v>
       </c>
       <c r="H41" t="s">
         <v>46</v>
@@ -1720,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>22065</v>
+        <v>22074</v>
       </c>
       <c r="H42" t="s">
         <v>46</v>
@@ -1749,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>22891</v>
+        <v>21813</v>
       </c>
       <c r="H43" t="s">
         <v>46</v>
@@ -1778,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>19752</v>
+        <v>22065</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -1807,10 +1800,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>20720</v>
+        <v>22891</v>
       </c>
       <c r="H45" t="s">
         <v>46</v>
@@ -1836,10 +1829,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>20520</v>
+        <v>19752</v>
       </c>
       <c r="H46" t="s">
         <v>46</v>
@@ -1865,10 +1858,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>22856</v>
+        <v>20720</v>
       </c>
       <c r="H47" t="s">
         <v>46</v>
@@ -1888,22 +1881,25 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>6460</v>
+        <v>20520</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1914,28 +1910,25 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>6460</v>
+        <v>22856</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1952,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>6460</v>
@@ -1978,7 +1971,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>6460</v>
@@ -1989,6 +1982,12 @@
       <c r="I51" t="s">
         <v>47</v>
       </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2004,7 +2003,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>6460</v>
@@ -2030,7 +2029,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
         <v>6460</v>
@@ -2056,22 +2055,16 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>7636</v>
+        <v>6460</v>
       </c>
       <c r="H54" t="s">
         <v>49</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
-      </c>
-      <c r="J54" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,10 +2081,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>7636</v>
+        <v>6460</v>
       </c>
       <c r="H55" t="s">
         <v>49</v>
@@ -2114,7 +2107,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
         <v>7636</v>
@@ -2125,6 +2118,12 @@
       <c r="I56" t="s">
         <v>47</v>
       </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -2140,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
         <v>7636</v>
@@ -2166,7 +2165,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
         <v>7636</v>
@@ -2192,22 +2191,16 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>7704</v>
+        <v>7636</v>
       </c>
       <c r="H59" t="s">
         <v>49</v>
       </c>
       <c r="I59" t="s">
         <v>47</v>
-      </c>
-      <c r="J59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2224,10 +2217,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>7704</v>
+        <v>7636</v>
       </c>
       <c r="H60" t="s">
         <v>49</v>
@@ -2250,7 +2243,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
         <v>7704</v>
@@ -2261,6 +2254,12 @@
       <c r="I61" t="s">
         <v>47</v>
       </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2276,7 +2275,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
         <v>7704</v>
@@ -2302,7 +2301,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
         <v>7704</v>
@@ -2328,19 +2327,16 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>7974</v>
+        <v>7704</v>
       </c>
       <c r="H64" t="s">
         <v>49</v>
       </c>
       <c r="I64" t="s">
         <v>47</v>
-      </c>
-      <c r="J64" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2357,10 +2353,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>7974</v>
+        <v>7704</v>
       </c>
       <c r="H65" t="s">
         <v>49</v>
@@ -2383,10 +2379,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>8065</v>
+        <v>7974</v>
       </c>
       <c r="H66" t="s">
         <v>49</v>
@@ -2412,10 +2408,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>8065</v>
+        <v>7974</v>
       </c>
       <c r="H67" t="s">
         <v>49</v>
@@ -2438,10 +2434,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>8073.4</v>
+        <v>8065</v>
       </c>
       <c r="H68" t="s">
         <v>49</v>
@@ -2467,19 +2463,16 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>8078.4</v>
+        <v>8065</v>
       </c>
       <c r="H69" t="s">
         <v>49</v>
       </c>
       <c r="I69" t="s">
         <v>47</v>
-      </c>
-      <c r="J69" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2496,10 +2489,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>8081.4</v>
+        <v>8073.4</v>
       </c>
       <c r="H70" t="s">
         <v>49</v>
@@ -2525,10 +2518,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>8081.4</v>
+        <v>8078.4</v>
       </c>
       <c r="H71" t="s">
         <v>49</v>
@@ -2554,10 +2547,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>7956.4</v>
+        <v>8081.4</v>
       </c>
       <c r="H72" t="s">
         <v>49</v>
@@ -2583,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>7966.4</v>
+        <v>8081.4</v>
       </c>
       <c r="H73" t="s">
         <v>49</v>
@@ -2612,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>8156.15</v>
+        <v>7956.4</v>
       </c>
       <c r="H74" t="s">
         <v>49</v>
@@ -2641,10 +2634,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>8151.75</v>
+        <v>7966.4</v>
       </c>
       <c r="H75" t="s">
         <v>49</v>
@@ -2670,10 +2663,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>8223.25</v>
+        <v>8156.15</v>
       </c>
       <c r="H76" t="s">
         <v>49</v>
@@ -2699,10 +2692,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>8223.93</v>
+        <v>8151.75</v>
       </c>
       <c r="H77" t="s">
         <v>49</v>
@@ -2722,16 +2715,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>8223.25</v>
       </c>
       <c r="H78" t="s">
         <v>49</v>
@@ -2739,8 +2732,8 @@
       <c r="I78" t="s">
         <v>47</v>
       </c>
-      <c r="L78" t="s">
-        <v>53</v>
+      <c r="J78" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2751,16 +2744,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>8223.93</v>
       </c>
       <c r="H79" t="s">
         <v>49</v>
@@ -2768,8 +2761,8 @@
       <c r="I79" t="s">
         <v>47</v>
       </c>
-      <c r="L79" t="s">
-        <v>53</v>
+      <c r="J79" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2786,7 +2779,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2815,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2844,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2873,7 +2866,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2902,10 +2895,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>49</v>
@@ -2931,7 +2924,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2960,10 +2953,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="H86" t="s">
         <v>49</v>
@@ -2989,7 +2982,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3018,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3047,10 +3040,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>49</v>
@@ -3076,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3105,10 +3098,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H91" t="s">
         <v>49</v>
@@ -3134,7 +3127,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3163,7 +3156,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3192,10 +3185,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
         <v>49</v>
@@ -3221,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3250,10 +3243,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
         <v>49</v>
@@ -3279,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3308,10 +3301,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>8.4</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
@@ -3337,10 +3330,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>49</v>
@@ -3366,10 +3359,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
@@ -3395,10 +3388,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101" t="s">
         <v>49</v>
@@ -3424,10 +3417,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>49</v>
@@ -3453,10 +3446,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
@@ -3482,10 +3475,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>189.75</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>49</v>
@@ -3511,10 +3504,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
@@ -3540,10 +3533,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>71.5</v>
+        <v>189.75</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
@@ -3569,10 +3562,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
@@ -3592,16 +3585,16 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="H108" t="s">
         <v>49</v>
@@ -3621,16 +3614,16 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H109" t="s">
         <v>49</v>
@@ -3656,7 +3649,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3685,7 +3678,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3714,7 +3707,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3743,7 +3736,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3772,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3801,7 +3794,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3830,7 +3823,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3859,7 +3852,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3888,7 +3881,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3917,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3946,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3975,7 +3968,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4004,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4033,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4062,7 +4055,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4091,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4120,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4149,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4178,7 +4171,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4207,7 +4200,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4236,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4265,7 +4258,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4294,10 +4287,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>49</v>
@@ -4323,7 +4316,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4352,10 +4345,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H134" t="s">
         <v>49</v>
@@ -4381,10 +4374,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H135" t="s">
         <v>49</v>
@@ -4410,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4439,10 +4432,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H137" t="s">
         <v>49</v>
@@ -4462,16 +4455,25 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>49</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
+      </c>
+      <c r="L138" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4482,16 +4484,25 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>49</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
+      </c>
+      <c r="L139" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4508,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4528,7 +4539,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4548,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4568,7 +4579,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4588,7 +4599,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4608,7 +4619,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4628,7 +4639,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4648,7 +4659,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4668,7 +4679,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4688,7 +4699,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4708,7 +4719,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4728,7 +4739,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4748,7 +4759,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4768,7 +4779,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4788,7 +4799,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4808,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4828,7 +4839,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4848,7 +4859,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4868,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4888,7 +4899,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4908,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4928,7 +4939,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -4948,22 +4959,10 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
-      </c>
-      <c r="G162">
-        <v>28.06575174</v>
-      </c>
-      <c r="H162" t="s">
-        <v>60</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
-      </c>
-      <c r="J162" t="s">
-        <v>61</v>
-      </c>
-      <c r="L162" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -4980,7 +4979,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5000,10 +4999,22 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G164">
+        <v>28.06575174</v>
+      </c>
+      <c r="H164" t="s">
+        <v>60</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
+      </c>
+      <c r="J164" t="s">
+        <v>61</v>
+      </c>
+      <c r="L164" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5020,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5040,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5060,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5074,13 +5085,13 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5094,13 +5105,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5120,7 +5131,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5140,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5160,7 +5171,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5180,7 +5191,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5200,7 +5211,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5220,7 +5231,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5240,13 +5251,13 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -5260,13 +5271,13 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -5280,13 +5291,13 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -5300,13 +5311,13 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -5320,13 +5331,13 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -5340,13 +5351,13 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -5360,13 +5371,13 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -5380,13 +5391,13 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -5400,13 +5411,13 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -5420,13 +5431,13 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -5440,13 +5451,13 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -5460,13 +5471,13 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -5480,13 +5491,13 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -5500,13 +5511,13 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -5520,13 +5531,13 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -5540,13 +5551,13 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -5560,25 +5571,13 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
-      </c>
-      <c r="G192">
-        <v>2445.6353479999998</v>
-      </c>
-      <c r="H192" t="s">
-        <v>60</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
       </c>
-      <c r="J192" t="s">
-        <v>61</v>
-      </c>
-      <c r="L192" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5592,13 +5591,13 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -5612,13 +5611,25 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G194">
+        <v>2445.6353479999998</v>
+      </c>
+      <c r="H194" t="s">
+        <v>60</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" t="s">
+        <v>61</v>
+      </c>
+      <c r="L194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -5632,13 +5643,13 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -5652,13 +5663,13 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -5672,53 +5683,53 @@
         <v>39</v>
       </c>
       <c r="E197">
+        <v>2017</v>
+      </c>
+      <c r="I197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>43</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198">
+        <v>2018</v>
+      </c>
+      <c r="I198" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199">
         <v>2019</v>
       </c>
-      <c r="I197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>16</v>
-      </c>
-      <c r="B198" t="s">
-        <v>43</v>
-      </c>
-      <c r="C198" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" t="s">
-        <v>39</v>
-      </c>
-      <c r="E198">
-        <v>1990</v>
-      </c>
-      <c r="I198" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>16</v>
-      </c>
-      <c r="B199" t="s">
-        <v>43</v>
-      </c>
-      <c r="C199" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" t="s">
-        <v>39</v>
-      </c>
-      <c r="E199">
-        <v>1991</v>
-      </c>
       <c r="I199" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -5732,13 +5743,13 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -5752,13 +5763,13 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -5772,13 +5783,13 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -5792,13 +5803,13 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -5812,13 +5823,13 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -5832,13 +5843,13 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -5852,13 +5863,13 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -5872,13 +5883,13 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5892,7 +5903,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -5912,7 +5923,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -5932,7 +5943,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -5952,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -5972,7 +5983,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -5992,7 +6003,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6012,7 +6023,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6032,7 +6043,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6052,7 +6063,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6072,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6092,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6112,7 +6123,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6132,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6152,7 +6163,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6172,22 +6183,10 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
-      </c>
-      <c r="G222">
-        <v>3.4329493680000001</v>
-      </c>
-      <c r="H222" t="s">
-        <v>63</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
-      </c>
-      <c r="J222" t="s">
-        <v>61</v>
-      </c>
-      <c r="L222" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6204,7 +6203,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6224,10 +6223,22 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G224">
+        <v>3.4329493680000001</v>
+      </c>
+      <c r="H224" t="s">
+        <v>63</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
+      </c>
+      <c r="J224" t="s">
+        <v>61</v>
+      </c>
+      <c r="L224" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6244,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6264,7 +6275,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6284,7 +6295,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6298,25 +6309,16 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>49</v>
+        <v>2018</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
-      </c>
-      <c r="L228" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6327,25 +6329,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>49</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
-      </c>
-      <c r="L229" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6362,7 +6355,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6391,7 +6384,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6420,7 +6413,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6449,7 +6442,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6478,7 +6471,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6507,7 +6500,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6536,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6565,7 +6558,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6594,7 +6587,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6623,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6652,7 +6645,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6681,7 +6674,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6710,7 +6703,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6739,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6768,7 +6761,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6797,7 +6790,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6826,7 +6819,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6855,7 +6848,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6884,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6913,7 +6906,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6942,7 +6935,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6971,7 +6964,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7000,10 +6993,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H252" t="s">
         <v>49</v>
@@ -7029,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7058,10 +7051,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H254" t="s">
         <v>49</v>
@@ -7087,10 +7080,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H255" t="s">
         <v>49</v>
@@ -7116,7 +7109,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7145,10 +7138,10 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H257" t="s">
         <v>49</v>
@@ -7168,25 +7161,25 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>49</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
-      <c r="J258" t="s">
-        <v>65</v>
-      </c>
       <c r="L258" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7197,25 +7190,25 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.33900221899999999</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>49</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
       </c>
-      <c r="J259" t="s">
-        <v>65</v>
-      </c>
       <c r="L259" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7232,10 +7225,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.32702121899999997</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
@@ -7261,10 +7254,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
-        <v>0.36759404600000001</v>
+        <v>0.33900221899999999</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7290,10 +7283,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
-        <v>0.40583428799999999</v>
+        <v>0.32702121899999997</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7319,10 +7312,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
-        <v>0.34368505900000001</v>
+        <v>0.36759404600000001</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7348,10 +7341,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
-        <v>0.29132268900000002</v>
+        <v>0.40583428799999999</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7377,10 +7370,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
-        <v>0.309843755</v>
+        <v>0.34368505900000001</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7406,10 +7399,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
-        <v>0.30893542499999999</v>
+        <v>0.29132268900000002</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7435,10 +7428,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
-        <v>0.35843194099999998</v>
+        <v>0.309843755</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7464,10 +7457,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
-        <v>0.31339508399999999</v>
+        <v>0.30893542499999999</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7493,10 +7486,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
-        <v>0.363180842</v>
+        <v>0.35843194099999998</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7522,10 +7515,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
-        <v>0.27987595799999998</v>
+        <v>0.31339508399999999</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7551,10 +7544,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
-        <v>0.31186728600000002</v>
+        <v>0.363180842</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7580,10 +7573,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
-        <v>0.29763119900000001</v>
+        <v>0.27987595799999998</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7609,10 +7602,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
-        <v>0.28598605100000002</v>
+        <v>0.31186728600000002</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7638,10 +7631,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
-        <v>0.27258165299999998</v>
+        <v>0.29763119900000001</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7667,10 +7660,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
-        <v>0.28382769099999999</v>
+        <v>0.28598605100000002</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7696,10 +7689,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
-        <v>0.29544482999999999</v>
+        <v>0.27258165299999998</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7725,10 +7718,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
-        <v>0.29761045400000002</v>
+        <v>0.28382769099999999</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7754,10 +7747,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
-        <v>0.30287183600000001</v>
+        <v>0.29544482999999999</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7783,10 +7776,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
-        <v>0.26936366099999998</v>
+        <v>0.29761045400000002</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7812,10 +7805,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
-        <v>0.31181020799999998</v>
+        <v>0.30287183600000001</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7841,10 +7834,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
-        <v>0.30812340599999999</v>
+        <v>0.26936366099999998</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7870,10 +7863,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
-        <v>0.31657981200000002</v>
+        <v>0.31181020799999998</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7899,10 +7892,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
-        <v>0.32801866000000002</v>
+        <v>0.30812340599999999</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7928,10 +7921,10 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
-        <v>0.30684676700000002</v>
+        <v>0.31657981200000002</v>
       </c>
       <c r="I284" t="s">
         <v>47</v>
@@ -7957,10 +7950,10 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
-        <v>0.30684676700000002</v>
+        <v>0.32801866000000002</v>
       </c>
       <c r="I285" t="s">
         <v>47</v>
@@ -7986,7 +7979,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.30684676700000002</v>
@@ -8015,10 +8008,10 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
-        <v>0.31726102</v>
+        <v>0.30684676700000002</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -8038,16 +8031,16 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.30684676700000002</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -8056,7 +8049,7 @@
         <v>65</v>
       </c>
       <c r="L288" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8067,16 +8060,16 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.23962008900000001</v>
+        <v>0.31726102</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8085,7 +8078,7 @@
         <v>65</v>
       </c>
       <c r="L289" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8102,10 +8095,10 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.23962008900000001</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8131,7 +8124,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.23962008900000001</v>
@@ -8160,7 +8153,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.23962008900000001</v>
@@ -8189,7 +8182,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.23962008900000001</v>
@@ -8218,7 +8211,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.23962008900000001</v>
@@ -8247,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.23962008900000001</v>
@@ -8276,7 +8269,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.23962008900000001</v>
@@ -8305,7 +8298,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.23962008900000001</v>
@@ -8334,7 +8327,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.23962008900000001</v>
@@ -8363,7 +8356,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.23962008900000001</v>
@@ -8392,7 +8385,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.23962008900000001</v>
@@ -8421,7 +8414,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.23962008900000001</v>
@@ -8450,7 +8443,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.23962008900000001</v>
@@ -8479,7 +8472,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.23962008900000001</v>
@@ -8508,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.23962008900000001</v>
@@ -8537,7 +8530,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.23962008900000001</v>
@@ -8566,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.23962008900000001</v>
@@ -8595,7 +8588,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.23962008900000001</v>
@@ -8624,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.23962008900000001</v>
@@ -8653,7 +8646,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.23962008900000001</v>
@@ -8682,7 +8675,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.23962008900000001</v>
@@ -8711,7 +8704,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.23962008900000001</v>
@@ -8740,7 +8733,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.23962008900000001</v>
@@ -8769,7 +8762,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.23962008900000001</v>
@@ -8798,7 +8791,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.23962008900000001</v>
@@ -8827,7 +8820,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.23962008900000001</v>
@@ -8856,7 +8849,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.23962008900000001</v>
@@ -8885,7 +8878,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.23962008900000001</v>
@@ -8900,11 +8893,69 @@
         <v>67</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.23962008900000001</v>
+      </c>
+      <c r="I318" t="s">
+        <v>47</v>
+      </c>
+      <c r="J318" t="s">
+        <v>65</v>
+      </c>
+      <c r="L318" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.23962008900000001</v>
+      </c>
+      <c r="I319" t="s">
+        <v>47</v>
+      </c>
+      <c r="J319" t="s">
+        <v>65</v>
+      </c>
+      <c r="L319" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_hydrodam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA99571-E3F5-9B4C-AAAE-8DFAC741F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DFF83-0385-2340-99B1-28BCFD7C6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -245,9 +245,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -255,6 +252,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,10 +786,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -804,10 +807,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -902,10 +905,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
